--- a/SpMVC_ShopV2/쇼핑몰테이블 양식.xlsx
+++ b/SpMVC_ShopV2/쇼핑몰테이블 양식.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\spring\SpMVC_ShopV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20175" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="상품정보 테이블 명세" sheetId="2" r:id="rId1"/>
-    <sheet name="거래처정보 테이블 명세" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="거래처정보 테이블 명세" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -998,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F11"/>
+    <sheetView showGridLines="0" topLeftCell="B4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2066,10 +2063,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3122,12 +3192,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
